--- a/biology/Médecine/Fluconazole/Fluconazole.xlsx
+++ b/biology/Médecine/Fluconazole/Fluconazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le fluconazole (DCI) est un médicament antifongique systémique, apparenté à la famille des triazolés indiqué dans le traitement des candidoses cutanéo-muqueuses et dans les mycoses liées au SIDA.
@@ -513,7 +525,9 @@
           <t>Présentations du médicament</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">TRIFLUCAN 50 mg : gélule (vert et blanc) 
 TRIFLUCAN 50 mg/5 ml : poudre pour suspension buvable  
@@ -548,7 +562,9 @@
           <t>Contre-indications, précautions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fluconazole est contre-indiqué dans les cas suivants :
 allergie aux imidazolés ;
@@ -583,12 +599,14 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hépatite médicamenteuse
 Réactions allergiques cutanées graves.
 La survenue de cloques impose l'arrêt du traitement et de prévenir d'urgence un médecin.
-L'utilisation à fortes doses durant une durée prolongée entraîne un risque tératogène chez la femme enceinte[2], ce qui ne semble pas être vrai pour des doses plus usuelles[3]. Ces dernières augmentent cependant le risque d'avortement spontané et de mortalité intra-utérine[4].
+L'utilisation à fortes doses durant une durée prolongée entraîne un risque tératogène chez la femme enceinte, ce qui ne semble pas être vrai pour des doses plus usuelles. Ces dernières augmentent cependant le risque d'avortement spontané et de mortalité intra-utérine.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Mode d'emploi</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce médicament peut être pris indifféremment au cours ou en dehors des repas. Les gélules doivent être avalées telles quelles avec un verre d'eau.
 </t>
@@ -648,7 +668,9 @@
           <t>Posologie usuelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Adulte : elle est variable selon la nature des indications.
 Par exemple :
@@ -684,9 +706,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fluconazole fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fluconazole fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
